--- a/story_xlsx_files/31.xlsx
+++ b/story_xlsx_files/31.xlsx
@@ -12,12 +12,173 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>storyText</t>
   </si>
   <si>
-    <t>Restaurant Business Deal</t>
+    <t>locationEvent</t>
+  </si>
+  <si>
+    <t>socialEvent</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>r.</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> Shelton and Mr. Gordon shook hands inside the foyer of the restaurant: lunch today was about big business. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mr. Shelton and Mr. Gordon both were CEOs of airplane manufacturing companies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Shelton was in charge of a larger, well established company, and had been in the business for years, whereas Mr. Gordon led a smaller but technologically-advanced company that was projected to disrupt the airplane manufacturing market. </t>
+  </si>
+  <si>
+    <t>The restaurant they chose to meet at was old and fancy, with high ceilings, dark wood paneling, and crystal chandeliers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The waitress led them to their table in the back, and they settled into a private table in the corner by the fireplace. </t>
+  </si>
+  <si>
+    <t>The waitress brought out the menus and they broke the ice with some small talk.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Gordon took out a picture of his daughter and talked about her recent engagement, and Mr. Gordon boasted about his purchase of a Tesla. </t>
+  </si>
+  <si>
+    <t>They looked at the menus as well, which were full of Italian classics, like Carbonara and Tiramisu, and were accompanied by a lengthy drink menu.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>fter a while, Mr. Shelton brought the conversation around to business.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> “Mr. Gordon, we really admire what you’re doing at your company.</t>
+  </si>
+  <si>
+    <t>We think it’s genius, and we want to support your vision, make this tiny company of yours internationally known.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Honestly, your company doesn’t have the resources to reach international markets right now, maybe in a few years you could, but by that time, other companies would have filled your niche.</t>
+  </si>
+  <si>
+    <t>I think we should join forces.”</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>he waitress came up to them and asked if they were ready to order.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Gordon ordered a medium-rare steak and martini, and Mr. Shelton ordered veal and a manhattan. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Then Mr. Shelton continued, “Look, I’ve talked to other members of the board, and are prepared to offer $600 million to buy your company. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We'd keep on all of your current employees, and you would join as the director of your company branch.” </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Gordon sat looking at Mr. Shelton for a few moments considering his response. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He looked at Mr. Shelton skeptically.</t>
+  </si>
+  <si>
+    <t>“Mr. Shelton, I think that you make a compelling case, but there are definitely some disadvantages to attaching our small, streamlined productions to a large company like yours.</t>
+  </si>
+  <si>
+    <t>We operate in a very different way than a large company, and the kind of administrative complexity that makes the scale of your productions possible would suffocate our business.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With our product, scaling-up doesn’t necessarily make sense.” </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mr. Shelton had expected this response and had come prepared, and began laying out the details of how he had handled similar acquisitions successfully in the past.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Gordon was impressed, and they went back and forth hashing out what the company configuration would look like post-merger. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The waitress brought the food out, interrupting their animated conversation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “Oh this looks so good!” Mr. Gordon said. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “Can I get you anything else?” the waitress asked.</t>
+  </si>
+  <si>
+    <t>They declined, and continued to talk.</t>
+  </si>
+  <si>
+    <t>The meal lived up to the reputation of the restaurant, which was known for having the best cuts of meat in the area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Gordon, after taking a thoughtful bite of his food, said, “Mr. Shelton. I think we have a deal. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If you can guarantee that I can still have the final say in the all the work done by my team, I think this could be beneficial for both of us.</t>
+  </si>
+  <si>
+    <t>I propose a toast to the merging of our companies.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mr. Shelton grinned and lifted his martini to clink glasses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “Cheers to a lifelong partnership and to the growth of your company.” </t>
   </si>
 </sst>
 </file>
@@ -27,7 +188,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -43,6 +204,11 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -184,7 +350,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -197,10 +363,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -209,14 +378,17 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1300,7 +1472,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1316,205 +1488,526 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="4">
+    <row r="2" ht="92.25" customHeight="1">
+      <c r="A2" t="s" s="4">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" ht="80.05" customHeight="1">
+      <c r="A3" t="s" s="8">
+        <v>4</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" ht="439.8" customHeight="1">
+      <c r="A4" t="s" s="12">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" ht="104.05" customHeight="1">
+      <c r="A5" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" ht="92.05" customHeight="1">
+      <c r="A6" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="B6" s="9">
+        <v>2</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" ht="169.8" customHeight="1">
+      <c r="A7" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="B7" s="9">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" ht="259.8" customHeight="1">
+      <c r="A8" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B8" s="9">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" ht="277.8" customHeight="1">
+      <c r="A9" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="B9" s="9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" ht="133.8" customHeight="1">
+      <c r="A10" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2</v>
+      </c>
+      <c r="C10" s="10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" ht="133.8" customHeight="1">
+      <c r="A11" t="s" s="12">
+        <v>12</v>
+      </c>
+      <c r="B11" s="9">
+        <v>2</v>
+      </c>
+      <c r="C11" s="10">
+        <v>2</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" ht="187.8" customHeight="1">
+      <c r="A12" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="B12" s="9">
+        <v>2</v>
+      </c>
+      <c r="C12" s="10">
+        <v>2</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" ht="349.8" customHeight="1">
+      <c r="A13" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="B13" s="9">
+        <v>2</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" ht="61.8" customHeight="1">
+      <c r="A14" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="B14" s="9">
+        <v>2</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" ht="151.8" customHeight="1">
+      <c r="A15" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="B15" s="9">
+        <v>3</v>
+      </c>
+      <c r="C15" s="10">
+        <v>2</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" ht="187.8" customHeight="1">
+      <c r="A16" t="s" s="12">
+        <v>17</v>
+      </c>
+      <c r="B16" s="9">
+        <v>3</v>
+      </c>
+      <c r="C16" s="10">
+        <v>2</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" ht="259.8" customHeight="1">
+      <c r="A17" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="B17" s="9">
+        <v>3</v>
+      </c>
+      <c r="C17" s="10">
+        <v>2</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" ht="92.05" customHeight="1">
+      <c r="A18" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="B18" s="9">
+        <v>3</v>
+      </c>
+      <c r="C18" s="10">
+        <v>2</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" ht="80.05" customHeight="1">
+      <c r="A19" t="s" s="8">
+        <v>20</v>
+      </c>
+      <c r="B19" s="9">
+        <v>3</v>
+      </c>
+      <c r="C19" s="10">
+        <v>2</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" ht="44.05" customHeight="1">
+      <c r="A20" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="B20" s="9">
+        <v>3</v>
+      </c>
+      <c r="C20" s="10">
+        <v>2</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" ht="152.05" customHeight="1">
+      <c r="A21" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="B21" s="9">
+        <v>3</v>
+      </c>
+      <c r="C21" s="10">
+        <v>3</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" ht="164.05" customHeight="1">
+      <c r="A22" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="B22" s="9">
+        <v>3</v>
+      </c>
+      <c r="C22" s="10">
+        <v>3</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" ht="56.05" customHeight="1">
+      <c r="A23" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="B23" s="9">
+        <v>3</v>
+      </c>
+      <c r="C23" s="10">
+        <v>3</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" ht="140.05" customHeight="1">
+      <c r="A24" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="B24" s="9">
+        <v>3</v>
+      </c>
+      <c r="C24" s="10">
+        <v>3</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" ht="116.05" customHeight="1">
+      <c r="A25" t="s" s="8">
+        <v>26</v>
+      </c>
+      <c r="B25" s="9">
+        <v>3</v>
+      </c>
+      <c r="C25" s="10">
+        <v>3</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" ht="68.05" customHeight="1">
+      <c r="A26" t="s" s="8">
+        <v>27</v>
+      </c>
+      <c r="B26" s="9">
+        <v>4</v>
+      </c>
+      <c r="C26" s="10">
+        <v>3</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" ht="44.05" customHeight="1">
+      <c r="A27" t="s" s="8">
+        <v>28</v>
+      </c>
+      <c r="B27" s="9">
+        <v>4</v>
+      </c>
+      <c r="C27" s="10">
+        <v>3</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" ht="56.05" customHeight="1">
+      <c r="A28" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="B28" s="9">
+        <v>4</v>
+      </c>
+      <c r="C28" s="10">
+        <v>3</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" ht="44.05" customHeight="1">
+      <c r="A29" t="s" s="8">
+        <v>30</v>
+      </c>
+      <c r="B29" s="9">
+        <v>4</v>
+      </c>
+      <c r="C29" s="10">
+        <v>3</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" ht="92.05" customHeight="1">
+      <c r="A30" t="s" s="8">
         <v>31</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" ht="32.05" customHeight="1">
-      <c r="A3" t="s" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="B30" s="9">
+        <v>4</v>
+      </c>
+      <c r="C30" s="10">
+        <v>3</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" ht="80.05" customHeight="1">
+      <c r="A31" t="s" s="8">
+        <v>32</v>
+      </c>
+      <c r="B31" s="9">
+        <v>4</v>
+      </c>
+      <c r="C31" s="10">
+        <v>4</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" ht="116.05" customHeight="1">
+      <c r="A32" t="s" s="8">
+        <v>33</v>
+      </c>
+      <c r="B32" s="9">
+        <v>4</v>
+      </c>
+      <c r="C32" s="10">
+        <v>4</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" ht="44.05" customHeight="1">
+      <c r="A33" t="s" s="8">
+        <v>34</v>
+      </c>
+      <c r="B33" s="9">
+        <v>4</v>
+      </c>
+      <c r="C33" s="10">
+        <v>4</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" ht="56.05" customHeight="1">
+      <c r="A34" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="B34" s="9">
+        <v>4</v>
+      </c>
+      <c r="C34" s="10">
+        <v>4</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" ht="68.05" customHeight="1">
+      <c r="A35" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="B35" s="9">
+        <v>4</v>
+      </c>
+      <c r="C35" s="10">
+        <v>4</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/31.xlsx
+++ b/story_xlsx_files/31.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>storyText</t>
   </si>
@@ -52,13 +52,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> Mr. Shelton and Mr. Gordon both were CEOs of airplane manufacturing companies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr. Shelton was in charge of a larger, well established company, and had been in the business for years, whereas Mr. Gordon led a smaller but technologically-advanced company that was projected to disrupt the airplane manufacturing market. </t>
-  </si>
-  <si>
-    <t>The restaurant they chose to meet at was old and fancy, with high ceilings, dark wood paneling, and crystal chandeliers.</t>
+    <t>Mr. Shelton and Mr. Gordon both were CEOs of airplane manufacturing companies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Shelton was in charge of a larger, well-established company and had been in the aviation business for decades, whereas Mr. Gordon led a smaller but technologically-advanced company that was projected to disrupt the airplane manufacturing market. </t>
+  </si>
+  <si>
+    <t>The restaurant they chose to meet at was old and fancy with high ceilings, dark wood paneling, and crystal chandeliers.</t>
   </si>
   <si>
     <t xml:space="preserve">The waitress led them to their table in the back, and they settled into a private table in the corner by the fireplace. </t>
@@ -70,7 +70,7 @@
     <t xml:space="preserve">Mr. Gordon took out a picture of his daughter and talked about her recent engagement, and Mr. Gordon boasted about his purchase of a Tesla. </t>
   </si>
   <si>
-    <t>They looked at the menus as well, which were full of Italian classics, like Carbonara and Tiramisu, and were accompanied by a lengthy drink menu.</t>
+    <t>They looked at the menus as well, which were full of Italian classics like Carbonara and Tiramisu, and in the back section of the menu was a lengthy drink selection.</t>
   </si>
   <si>
     <r>
@@ -87,17 +87,17 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>fter a while, Mr. Shelton brought the conversation around to business.</t>
+      <t>fter awhile, Mr. Shelton brought the conversation around to business.</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve"> “Mr. Gordon, we really admire what you’re doing at your company.</t>
   </si>
   <si>
-    <t>We think it’s genius, and we want to support your vision, make this tiny company of yours internationally known.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Honestly, your company doesn’t have the resources to reach international markets right now, maybe in a few years you could, but by that time, other companies would have filled your niche.</t>
+    <t>We think it’s genius; we want to support your vision and make this tiny company of yours internationally known.</t>
+  </si>
+  <si>
+    <t>Honestly, your company doesn’t have the resources to reach international markets right now, maybe in a few years you could, but by that time, other companies would have filled your niche.</t>
   </si>
   <si>
     <t>I think we should join forces.”</t>
@@ -124,7 +124,7 @@
     <t xml:space="preserve">Mr. Gordon ordered a medium-rare steak and martini, and Mr. Shelton ordered veal and a manhattan. </t>
   </si>
   <si>
-    <t xml:space="preserve">Then Mr. Shelton continued, “Look, I’ve talked to other members of the board, and are prepared to offer $600 million to buy your company. </t>
+    <t xml:space="preserve">Then Mr. Shelton continued, “Look, I’ve talked to other members of the board, and we are prepared to offer $600 million to buy your company. </t>
   </si>
   <si>
     <t xml:space="preserve"> We'd keep on all of your current employees, and you would join as the director of your company branch.” </t>
@@ -145,16 +145,19 @@
     <t xml:space="preserve">With our product, scaling-up doesn’t necessarily make sense.” </t>
   </si>
   <si>
-    <t xml:space="preserve"> Mr. Shelton had expected this response and had come prepared, and began laying out the details of how he had handled similar acquisitions successfully in the past.</t>
+    <t>Mr. Shelton had expected this response and had come prepared.</t>
+  </si>
+  <si>
+    <t>He began laying out the details of how he had handled similar acquisitions successfully in the past.</t>
   </si>
   <si>
     <t xml:space="preserve">Mr. Gordon was impressed, and they went back and forth hashing out what the company configuration would look like post-merger. </t>
   </si>
   <si>
-    <t xml:space="preserve"> The waitress brought the food out, interrupting their animated conversation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> “Oh this looks so good!” Mr. Gordon said. </t>
+    <t>The waitress brought the food out, interrupting their animated conversation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Oh this looks so good!” Mr. Gordon said. </t>
   </si>
   <si>
     <t xml:space="preserve"> “Can I get you anything else?” the waitress asked.</t>
@@ -166,19 +169,19 @@
     <t>The meal lived up to the reputation of the restaurant, which was known for having the best cuts of meat in the area.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mr. Gordon, after taking a thoughtful bite of his food, said, “Mr. Shelton. I think we have a deal. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> If you can guarantee that I can still have the final say in the all the work done by my team, I think this could be beneficial for both of us.</t>
+    <t xml:space="preserve">Mr. Gordon, after taking a thoughtful bite of his food, said, “Mr. Shelton, I think we have a deal. </t>
+  </si>
+  <si>
+    <t>If you can guarantee that I can still have the final say in the all the work done by my team, I think this could be beneficial for both of us.</t>
   </si>
   <si>
     <t>I propose a toast to the merging of our companies.”</t>
   </si>
   <si>
-    <t xml:space="preserve"> Mr. Shelton grinned and lifted his martini to clink glasses.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> “Cheers to a lifelong partnership and to the growth of your company.” </t>
+    <t>Mr. Shelton grinned and lifted his martini to clink glasses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Cheers to a lifelong partnership and to the growth of your company.” </t>
   </si>
 </sst>
 </file>
@@ -1472,7 +1475,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1529,7 +1532,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" ht="439.8" customHeight="1">
+    <row r="4" ht="457.8" customHeight="1">
       <c r="A4" t="s" s="12">
         <v>5</v>
       </c>
@@ -1604,7 +1607,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" ht="277.8" customHeight="1">
+    <row r="9" ht="313.8" customHeight="1">
       <c r="A9" t="s" s="12">
         <v>10</v>
       </c>
@@ -1619,7 +1622,7 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" ht="133.8" customHeight="1">
+    <row r="10" ht="115.8" customHeight="1">
       <c r="A10" t="s" s="8">
         <v>11</v>
       </c>
@@ -1649,7 +1652,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" ht="187.8" customHeight="1">
+    <row r="12" ht="205.8" customHeight="1">
       <c r="A12" t="s" s="12">
         <v>13</v>
       </c>
@@ -1829,7 +1832,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" ht="140.05" customHeight="1">
+    <row r="24" ht="56.05" customHeight="1">
       <c r="A24" t="s" s="8">
         <v>25</v>
       </c>
@@ -1844,7 +1847,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" ht="116.05" customHeight="1">
+    <row r="25" ht="92.05" customHeight="1">
       <c r="A25" t="s" s="8">
         <v>26</v>
       </c>
@@ -1859,12 +1862,12 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" ht="68.05" customHeight="1">
+    <row r="26" ht="116.05" customHeight="1">
       <c r="A26" t="s" s="8">
         <v>27</v>
       </c>
       <c r="B26" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" s="10">
         <v>3</v>
@@ -1874,7 +1877,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" ht="44.05" customHeight="1">
+    <row r="27" ht="68.05" customHeight="1">
       <c r="A27" t="s" s="8">
         <v>28</v>
       </c>
@@ -1889,7 +1892,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="56.05" customHeight="1">
+    <row r="28" ht="44.05" customHeight="1">
       <c r="A28" t="s" s="8">
         <v>29</v>
       </c>
@@ -1904,7 +1907,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="44.05" customHeight="1">
+    <row r="29" ht="56.05" customHeight="1">
       <c r="A29" t="s" s="8">
         <v>30</v>
       </c>
@@ -1919,7 +1922,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="92.05" customHeight="1">
+    <row r="30" ht="44.05" customHeight="1">
       <c r="A30" t="s" s="8">
         <v>31</v>
       </c>
@@ -1934,7 +1937,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="80.05" customHeight="1">
+    <row r="31" ht="92.05" customHeight="1">
       <c r="A31" t="s" s="8">
         <v>32</v>
       </c>
@@ -1942,14 +1945,14 @@
         <v>4</v>
       </c>
       <c r="C31" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" ht="116.05" customHeight="1">
+    <row r="32" ht="80.05" customHeight="1">
       <c r="A32" t="s" s="8">
         <v>33</v>
       </c>
@@ -1964,7 +1967,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" ht="44.05" customHeight="1">
+    <row r="33" ht="116.05" customHeight="1">
       <c r="A33" t="s" s="8">
         <v>34</v>
       </c>
@@ -1979,7 +1982,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" ht="56.05" customHeight="1">
+    <row r="34" ht="44.05" customHeight="1">
       <c r="A34" t="s" s="8">
         <v>35</v>
       </c>
@@ -1994,7 +1997,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" ht="68.05" customHeight="1">
+    <row r="35" ht="56.05" customHeight="1">
       <c r="A35" t="s" s="8">
         <v>36</v>
       </c>
@@ -2008,6 +2011,21 @@
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
+    </row>
+    <row r="36" ht="68.05" customHeight="1">
+      <c r="A36" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="B36" s="9">
+        <v>4</v>
+      </c>
+      <c r="C36" s="10">
+        <v>4</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/31.xlsx
+++ b/story_xlsx_files/31.xlsx
@@ -91,13 +91,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> “Mr. Gordon, we really admire what you’re doing at your company.</t>
+    <t>“Mr. Gordon, we really admire what you’re doing at your company.</t>
   </si>
   <si>
     <t>We think it’s genius; we want to support your vision and make this tiny company of yours internationally known.</t>
   </si>
   <si>
-    <t>Honestly, your company doesn’t have the resources to reach international markets right now, maybe in a few years you could, but by that time, other companies would have filled your niche.</t>
+    <t>But honestly, your company doesn’t have the resources to reach international markets right now, maybe in a few years you could, but by that time, other companies may have already filled your niche.</t>
   </si>
   <si>
     <t>I think we should join forces.”</t>
@@ -127,16 +127,16 @@
     <t xml:space="preserve">Then Mr. Shelton continued, “Look, I’ve talked to other members of the board, and we are prepared to offer $600 million to buy your company. </t>
   </si>
   <si>
-    <t xml:space="preserve"> We'd keep on all of your current employees, and you would join as the director of your company branch.” </t>
+    <t xml:space="preserve">We'd keep on all of your current employees, and you would join as the director of your company branch.” </t>
   </si>
   <si>
     <t xml:space="preserve">Mr. Gordon sat looking at Mr. Shelton for a few moments considering his response. </t>
   </si>
   <si>
-    <t xml:space="preserve"> He looked at Mr. Shelton skeptically.</t>
-  </si>
-  <si>
-    <t>“Mr. Shelton, I think that you make a compelling case, but there are definitely some disadvantages to attaching our small, streamlined productions to a large company like yours.</t>
+    <t>He looked at Mr. Shelton skeptically.</t>
+  </si>
+  <si>
+    <t>He said, “Mr. Shelton, I think that you make a compelling offer, but there are definitely some disadvantages to attaching our small, streamlined productions to a large company like yours.</t>
   </si>
   <si>
     <t>We operate in a very different way than a large company, and the kind of administrative complexity that makes the scale of your productions possible would suffocate our business.</t>
@@ -163,13 +163,13 @@
     <t xml:space="preserve"> “Can I get you anything else?” the waitress asked.</t>
   </si>
   <si>
-    <t>They declined, and continued to talk.</t>
+    <t>They declined and continued to talk.</t>
   </si>
   <si>
     <t>The meal lived up to the reputation of the restaurant, which was known for having the best cuts of meat in the area.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mr. Gordon, after taking a thoughtful bite of his food, said, “Mr. Shelton, I think we have a deal. </t>
+    <t xml:space="preserve">Mr. Gordon, after taking a contemplative bite of his food, said, “Mr. Shelton, I think we have a deal. </t>
   </si>
   <si>
     <t>If you can guarantee that I can still have the final say in the all the work done by my team, I think this could be beneficial for both of us.</t>
@@ -181,7 +181,7 @@
     <t>Mr. Shelton grinned and lifted his martini to clink glasses.</t>
   </si>
   <si>
-    <t xml:space="preserve">“Cheers to a lifelong partnership and to the growth of your company.” </t>
+    <t xml:space="preserve">He said, “Cheers to a lifelong partnership and to the growth of your company.” </t>
   </si>
 </sst>
 </file>
@@ -195,7 +195,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica Neue Medium"/>
     </font>
     <font>
       <sz val="12"/>
@@ -391,7 +391,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1483,7 +1483,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1667,7 +1673,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" ht="349.8" customHeight="1">
+    <row r="13" ht="385.8" customHeight="1">
       <c r="A13" t="s" s="12">
         <v>14</v>
       </c>
@@ -1922,7 +1928,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="44.05" customHeight="1">
+    <row r="30" ht="32.05" customHeight="1">
       <c r="A30" t="s" s="8">
         <v>31</v>
       </c>
@@ -1952,7 +1958,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" ht="80.05" customHeight="1">
+    <row r="32" ht="92.05" customHeight="1">
       <c r="A32" t="s" s="8">
         <v>33</v>
       </c>

--- a/story_xlsx_files/31.xlsx
+++ b/story_xlsx_files/31.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>storyText</t>
   </si>
@@ -97,7 +97,10 @@
     <t>We think it’s genius; we want to support your vision and make this tiny company of yours internationally known.</t>
   </si>
   <si>
-    <t>But honestly, your company doesn’t have the resources to reach international markets right now, maybe in a few years you could, but by that time, other companies may have already filled your niche.</t>
+    <t>But honestly, your company doesn’t have the resources to reach international markets right now.</t>
+  </si>
+  <si>
+    <t>Maybe in a few years you could, but by that time, other companies may have already filled your niche.</t>
   </si>
   <si>
     <t>I think we should join forces.”</t>
@@ -195,7 +198,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue Medium"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="12"/>
@@ -391,7 +394,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1475,7 +1478,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1483,13 +1486,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1673,7 +1670,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" ht="385.8" customHeight="1">
+    <row r="13" ht="205.8" customHeight="1">
       <c r="A13" t="s" s="12">
         <v>14</v>
       </c>
@@ -1688,7 +1685,7 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" ht="61.8" customHeight="1">
+    <row r="14" ht="187.8" customHeight="1">
       <c r="A14" t="s" s="12">
         <v>15</v>
       </c>
@@ -1703,12 +1700,12 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" ht="151.8" customHeight="1">
-      <c r="A15" t="s" s="8">
+    <row r="15" ht="61.8" customHeight="1">
+      <c r="A15" t="s" s="12">
         <v>16</v>
       </c>
       <c r="B15" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="10">
         <v>2</v>
@@ -1718,8 +1715,8 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" ht="187.8" customHeight="1">
-      <c r="A16" t="s" s="12">
+    <row r="16" ht="151.8" customHeight="1">
+      <c r="A16" t="s" s="8">
         <v>17</v>
       </c>
       <c r="B16" s="9">
@@ -1733,7 +1730,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" ht="259.8" customHeight="1">
+    <row r="17" ht="187.8" customHeight="1">
       <c r="A17" t="s" s="12">
         <v>18</v>
       </c>
@@ -1748,8 +1745,8 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" ht="92.05" customHeight="1">
-      <c r="A18" t="s" s="8">
+    <row r="18" ht="259.8" customHeight="1">
+      <c r="A18" t="s" s="12">
         <v>19</v>
       </c>
       <c r="B18" s="9">
@@ -1763,7 +1760,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" ht="80.05" customHeight="1">
+    <row r="19" ht="92.05" customHeight="1">
       <c r="A19" t="s" s="8">
         <v>20</v>
       </c>
@@ -1778,7 +1775,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" ht="44.05" customHeight="1">
+    <row r="20" ht="80.05" customHeight="1">
       <c r="A20" t="s" s="8">
         <v>21</v>
       </c>
@@ -1793,7 +1790,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" ht="152.05" customHeight="1">
+    <row r="21" ht="44.05" customHeight="1">
       <c r="A21" t="s" s="8">
         <v>22</v>
       </c>
@@ -1801,14 +1798,14 @@
         <v>3</v>
       </c>
       <c r="C21" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" ht="164.05" customHeight="1">
+    <row r="22" ht="152.05" customHeight="1">
       <c r="A22" t="s" s="8">
         <v>23</v>
       </c>
@@ -1823,7 +1820,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" ht="56.05" customHeight="1">
+    <row r="23" ht="164.05" customHeight="1">
       <c r="A23" t="s" s="8">
         <v>24</v>
       </c>
@@ -1853,7 +1850,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" ht="92.05" customHeight="1">
+    <row r="25" ht="56.05" customHeight="1">
       <c r="A25" t="s" s="8">
         <v>26</v>
       </c>
@@ -1868,7 +1865,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" ht="116.05" customHeight="1">
+    <row r="26" ht="92.05" customHeight="1">
       <c r="A26" t="s" s="8">
         <v>27</v>
       </c>
@@ -1883,12 +1880,12 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" ht="68.05" customHeight="1">
+    <row r="27" ht="116.05" customHeight="1">
       <c r="A27" t="s" s="8">
         <v>28</v>
       </c>
       <c r="B27" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" s="10">
         <v>3</v>
@@ -1898,7 +1895,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="44.05" customHeight="1">
+    <row r="28" ht="68.05" customHeight="1">
       <c r="A28" t="s" s="8">
         <v>29</v>
       </c>
@@ -1913,7 +1910,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="56.05" customHeight="1">
+    <row r="29" ht="44.05" customHeight="1">
       <c r="A29" t="s" s="8">
         <v>30</v>
       </c>
@@ -1928,7 +1925,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="32.05" customHeight="1">
+    <row r="30" ht="56.05" customHeight="1">
       <c r="A30" t="s" s="8">
         <v>31</v>
       </c>
@@ -1943,7 +1940,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="92.05" customHeight="1">
+    <row r="31" ht="32.05" customHeight="1">
       <c r="A31" t="s" s="8">
         <v>32</v>
       </c>
@@ -1966,14 +1963,14 @@
         <v>4</v>
       </c>
       <c r="C32" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" ht="116.05" customHeight="1">
+    <row r="33" ht="92.05" customHeight="1">
       <c r="A33" t="s" s="8">
         <v>34</v>
       </c>
@@ -1988,7 +1985,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" ht="44.05" customHeight="1">
+    <row r="34" ht="116.05" customHeight="1">
       <c r="A34" t="s" s="8">
         <v>35</v>
       </c>
@@ -2003,7 +2000,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" ht="56.05" customHeight="1">
+    <row r="35" ht="44.05" customHeight="1">
       <c r="A35" t="s" s="8">
         <v>36</v>
       </c>
@@ -2018,7 +2015,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" ht="68.05" customHeight="1">
+    <row r="36" ht="56.05" customHeight="1">
       <c r="A36" t="s" s="8">
         <v>37</v>
       </c>
@@ -2032,6 +2029,21 @@
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
+    </row>
+    <row r="37" ht="68.05" customHeight="1">
+      <c r="A37" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="B37" s="9">
+        <v>4</v>
+      </c>
+      <c r="C37" s="10">
+        <v>4</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/31.xlsx
+++ b/story_xlsx_files/31.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>storyText</t>
   </si>
@@ -55,7 +55,10 @@
     <t>Mr. Shelton and Mr. Gordon both were CEOs of airplane manufacturing companies.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mr. Shelton was in charge of a larger, well-established company and had been in the aviation business for decades, whereas Mr. Gordon led a smaller but technologically-advanced company that was projected to disrupt the airplane manufacturing market. </t>
+    <t>Mr. Shelton was in charge of a larger, well-established company and had been in the aviation business for decades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On the other hand, Mr. Gordon led a smaller but technologically-advanced company that was projected to disrupt the airplane manufacturing market. </t>
   </si>
   <si>
     <t>The restaurant they chose to meet at was old and fancy with high ceilings, dark wood paneling, and crystal chandeliers.</t>
@@ -198,7 +201,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica Neue Medium"/>
     </font>
     <font>
       <sz val="12"/>
@@ -394,7 +397,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1478,7 +1481,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1486,7 +1489,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1535,7 +1544,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" ht="457.8" customHeight="1">
+    <row r="4" ht="205.8" customHeight="1">
       <c r="A4" t="s" s="12">
         <v>5</v>
       </c>
@@ -1550,8 +1559,8 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" ht="104.05" customHeight="1">
-      <c r="A5" t="s" s="8">
+    <row r="5" ht="277.8" customHeight="1">
+      <c r="A5" t="s" s="12">
         <v>6</v>
       </c>
       <c r="B5" s="9">
@@ -1565,12 +1574,12 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" ht="92.05" customHeight="1">
+    <row r="6" ht="104.05" customHeight="1">
       <c r="A6" t="s" s="8">
         <v>7</v>
       </c>
       <c r="B6" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="10">
         <v>1</v>
@@ -1580,8 +1589,8 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" ht="169.8" customHeight="1">
-      <c r="A7" t="s" s="12">
+    <row r="7" ht="92.05" customHeight="1">
+      <c r="A7" t="s" s="8">
         <v>8</v>
       </c>
       <c r="B7" s="9">
@@ -1595,7 +1604,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" ht="259.8" customHeight="1">
+    <row r="8" ht="169.8" customHeight="1">
       <c r="A8" t="s" s="12">
         <v>9</v>
       </c>
@@ -1610,7 +1619,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" ht="313.8" customHeight="1">
+    <row r="9" ht="259.8" customHeight="1">
       <c r="A9" t="s" s="12">
         <v>10</v>
       </c>
@@ -1625,23 +1634,23 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" ht="115.8" customHeight="1">
-      <c r="A10" t="s" s="8">
+    <row r="10" ht="313.8" customHeight="1">
+      <c r="A10" t="s" s="12">
         <v>11</v>
       </c>
       <c r="B10" s="9">
         <v>2</v>
       </c>
       <c r="C10" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" ht="133.8" customHeight="1">
-      <c r="A11" t="s" s="12">
+    <row r="11" ht="115.8" customHeight="1">
+      <c r="A11" t="s" s="8">
         <v>12</v>
       </c>
       <c r="B11" s="9">
@@ -1655,7 +1664,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" ht="205.8" customHeight="1">
+    <row r="12" ht="133.8" customHeight="1">
       <c r="A12" t="s" s="12">
         <v>13</v>
       </c>
@@ -1685,7 +1694,7 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" ht="187.8" customHeight="1">
+    <row r="14" ht="205.8" customHeight="1">
       <c r="A14" t="s" s="12">
         <v>15</v>
       </c>
@@ -1700,7 +1709,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" ht="61.8" customHeight="1">
+    <row r="15" ht="187.8" customHeight="1">
       <c r="A15" t="s" s="12">
         <v>16</v>
       </c>
@@ -1715,12 +1724,12 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" ht="151.8" customHeight="1">
-      <c r="A16" t="s" s="8">
+    <row r="16" ht="61.8" customHeight="1">
+      <c r="A16" t="s" s="12">
         <v>17</v>
       </c>
       <c r="B16" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="10">
         <v>2</v>
@@ -1730,8 +1739,8 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" ht="187.8" customHeight="1">
-      <c r="A17" t="s" s="12">
+    <row r="17" ht="151.8" customHeight="1">
+      <c r="A17" t="s" s="8">
         <v>18</v>
       </c>
       <c r="B17" s="9">
@@ -1745,7 +1754,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" ht="259.8" customHeight="1">
+    <row r="18" ht="187.8" customHeight="1">
       <c r="A18" t="s" s="12">
         <v>19</v>
       </c>
@@ -1760,8 +1769,8 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" ht="92.05" customHeight="1">
-      <c r="A19" t="s" s="8">
+    <row r="19" ht="259.8" customHeight="1">
+      <c r="A19" t="s" s="12">
         <v>20</v>
       </c>
       <c r="B19" s="9">
@@ -1775,7 +1784,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" ht="80.05" customHeight="1">
+    <row r="20" ht="92.05" customHeight="1">
       <c r="A20" t="s" s="8">
         <v>21</v>
       </c>
@@ -1790,7 +1799,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" ht="44.05" customHeight="1">
+    <row r="21" ht="80.05" customHeight="1">
       <c r="A21" t="s" s="8">
         <v>22</v>
       </c>
@@ -1805,7 +1814,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" ht="152.05" customHeight="1">
+    <row r="22" ht="44.05" customHeight="1">
       <c r="A22" t="s" s="8">
         <v>23</v>
       </c>
@@ -1813,14 +1822,14 @@
         <v>3</v>
       </c>
       <c r="C22" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" ht="164.05" customHeight="1">
+    <row r="23" ht="152.05" customHeight="1">
       <c r="A23" t="s" s="8">
         <v>24</v>
       </c>
@@ -1835,7 +1844,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" ht="56.05" customHeight="1">
+    <row r="24" ht="164.05" customHeight="1">
       <c r="A24" t="s" s="8">
         <v>25</v>
       </c>
@@ -1865,7 +1874,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" ht="92.05" customHeight="1">
+    <row r="26" ht="56.05" customHeight="1">
       <c r="A26" t="s" s="8">
         <v>27</v>
       </c>
@@ -1880,7 +1889,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" ht="116.05" customHeight="1">
+    <row r="27" ht="92.05" customHeight="1">
       <c r="A27" t="s" s="8">
         <v>28</v>
       </c>
@@ -1895,12 +1904,12 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="68.05" customHeight="1">
+    <row r="28" ht="116.05" customHeight="1">
       <c r="A28" t="s" s="8">
         <v>29</v>
       </c>
       <c r="B28" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" s="10">
         <v>3</v>
@@ -1910,7 +1919,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="44.05" customHeight="1">
+    <row r="29" ht="68.05" customHeight="1">
       <c r="A29" t="s" s="8">
         <v>30</v>
       </c>
@@ -1925,7 +1934,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="56.05" customHeight="1">
+    <row r="30" ht="44.05" customHeight="1">
       <c r="A30" t="s" s="8">
         <v>31</v>
       </c>
@@ -1940,7 +1949,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="32.05" customHeight="1">
+    <row r="31" ht="56.05" customHeight="1">
       <c r="A31" t="s" s="8">
         <v>32</v>
       </c>
@@ -1955,7 +1964,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" ht="92.05" customHeight="1">
+    <row r="32" ht="32.05" customHeight="1">
       <c r="A32" t="s" s="8">
         <v>33</v>
       </c>
@@ -1978,14 +1987,14 @@
         <v>4</v>
       </c>
       <c r="C33" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" ht="116.05" customHeight="1">
+    <row r="34" ht="92.05" customHeight="1">
       <c r="A34" t="s" s="8">
         <v>35</v>
       </c>
@@ -2000,7 +2009,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" ht="44.05" customHeight="1">
+    <row r="35" ht="116.05" customHeight="1">
       <c r="A35" t="s" s="8">
         <v>36</v>
       </c>
@@ -2015,7 +2024,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" ht="56.05" customHeight="1">
+    <row r="36" ht="44.05" customHeight="1">
       <c r="A36" t="s" s="8">
         <v>37</v>
       </c>
@@ -2030,7 +2039,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" ht="68.05" customHeight="1">
+    <row r="37" ht="56.05" customHeight="1">
       <c r="A37" t="s" s="8">
         <v>38</v>
       </c>
@@ -2044,6 +2053,21 @@
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
+    </row>
+    <row r="38" ht="68.05" customHeight="1">
+      <c r="A38" t="s" s="8">
+        <v>39</v>
+      </c>
+      <c r="B38" s="9">
+        <v>4</v>
+      </c>
+      <c r="C38" s="10">
+        <v>4</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/31.xlsx
+++ b/story_xlsx_files/31.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>storyText</t>
   </si>
@@ -21,6 +21,9 @@
   </si>
   <si>
     <t>socialEvent</t>
+  </si>
+  <si>
+    <t>story</t>
   </si>
   <si>
     <r>
@@ -30,25 +33,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>r.</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve"> Shelton and Mr. Gordon shook hands inside the foyer of the restaurant: lunch today was about big business. </t>
+      <t xml:space="preserve">Mr. Shelton and Mr. Gordon shook hands inside the foyer of the restaurant: lunch today was about big business. </t>
     </r>
   </si>
   <si>
@@ -82,48 +67,32 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>A</t>
+      <t>After awhile, Mr. Shelton brought the conversation around to business.</t>
     </r>
+  </si>
+  <si>
+    <t>“Mr. Gordon, we really admire what you’re doing at your company.</t>
+  </si>
+  <si>
+    <t>We think it’s genius; we want to support your vision and make this tiny company of yours internationally known.</t>
+  </si>
+  <si>
+    <t>But honestly, your company doesn’t have the resources to reach international markets right now.</t>
+  </si>
+  <si>
+    <t>Maybe in a few years you could, but by that time, other companies may have already filled your niche.</t>
+  </si>
+  <si>
+    <t>I think we should join forces.”</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="16"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>fter awhile, Mr. Shelton brought the conversation around to business.</t>
-    </r>
-  </si>
-  <si>
-    <t>“Mr. Gordon, we really admire what you’re doing at your company.</t>
-  </si>
-  <si>
-    <t>We think it’s genius; we want to support your vision and make this tiny company of yours internationally known.</t>
-  </si>
-  <si>
-    <t>But honestly, your company doesn’t have the resources to reach international markets right now.</t>
-  </si>
-  <si>
-    <t>Maybe in a few years you could, but by that time, other companies may have already filled your niche.</t>
-  </si>
-  <si>
-    <t>I think we should join forces.”</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>he waitress came up to them and asked if they were ready to order.</t>
+      <t>The waitress came up to them and asked if they were ready to order.</t>
     </r>
   </si>
   <si>
@@ -197,7 +166,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -206,7 +175,12 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue Medium"/>
     </font>
     <font>
       <b val="1"/>
@@ -220,7 +194,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,6 +210,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -359,44 +339,38 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -420,6 +394,7 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -436,10 +411,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -468,14 +443,14 @@
     </a:clrScheme>
     <a:fontScheme name="Blank">
       <a:majorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Blank">
@@ -616,11 +591,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent1"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -629,33 +607,33 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
             <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
@@ -906,10 +884,10 @@
         <a:noFill/>
         <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1200,7 +1178,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1224,9 +1202,9 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
             <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
@@ -1483,9 +1461,7 @@
   </sheetPr>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -1509,14 +1485,16 @@
       <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
     <row r="2" ht="92.25" customHeight="1">
       <c r="A2" t="s" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -1524,556 +1502,558 @@
       <c r="C2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="D2" s="6">
+        <v>31</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" ht="80.05" customHeight="1">
-      <c r="A3" t="s" s="8">
+      <c r="A3" t="s" s="7">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" ht="205.8" customHeight="1">
+      <c r="A4" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" ht="277.8" customHeight="1">
+      <c r="A5" t="s" s="10">
+        <v>7</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" ht="104.05" customHeight="1">
+      <c r="A6" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" ht="92.05" customHeight="1">
+      <c r="A7" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" ht="169.8" customHeight="1">
+      <c r="A8" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="B8" s="8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" ht="259.8" customHeight="1">
+      <c r="A9" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="B9" s="8">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" ht="313.8" customHeight="1">
+      <c r="A10" t="s" s="10">
+        <v>12</v>
+      </c>
+      <c r="B10" s="8">
+        <v>2</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" ht="115.8" customHeight="1">
+      <c r="A11" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="B11" s="8">
+        <v>2</v>
+      </c>
+      <c r="C11" s="9">
+        <v>2</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" ht="133.8" customHeight="1">
+      <c r="A12" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="B12" s="8">
+        <v>2</v>
+      </c>
+      <c r="C12" s="9">
+        <v>2</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" ht="205.8" customHeight="1">
+      <c r="A13" t="s" s="10">
+        <v>15</v>
+      </c>
+      <c r="B13" s="8">
+        <v>2</v>
+      </c>
+      <c r="C13" s="9">
+        <v>2</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" ht="205.8" customHeight="1">
+      <c r="A14" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="B14" s="8">
+        <v>2</v>
+      </c>
+      <c r="C14" s="9">
+        <v>2</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" ht="187.8" customHeight="1">
+      <c r="A15" t="s" s="10">
+        <v>17</v>
+      </c>
+      <c r="B15" s="8">
+        <v>2</v>
+      </c>
+      <c r="C15" s="9">
+        <v>2</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" ht="61.8" customHeight="1">
+      <c r="A16" t="s" s="10">
+        <v>18</v>
+      </c>
+      <c r="B16" s="8">
+        <v>2</v>
+      </c>
+      <c r="C16" s="9">
+        <v>2</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" ht="151.8" customHeight="1">
+      <c r="A17" t="s" s="7">
+        <v>19</v>
+      </c>
+      <c r="B17" s="8">
+        <v>3</v>
+      </c>
+      <c r="C17" s="9">
+        <v>2</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" ht="187.8" customHeight="1">
+      <c r="A18" t="s" s="10">
+        <v>20</v>
+      </c>
+      <c r="B18" s="8">
+        <v>3</v>
+      </c>
+      <c r="C18" s="9">
+        <v>2</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" ht="259.8" customHeight="1">
+      <c r="A19" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="B19" s="8">
+        <v>3</v>
+      </c>
+      <c r="C19" s="9">
+        <v>2</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" ht="92.05" customHeight="1">
+      <c r="A20" t="s" s="7">
+        <v>22</v>
+      </c>
+      <c r="B20" s="8">
+        <v>3</v>
+      </c>
+      <c r="C20" s="9">
+        <v>2</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" ht="80.05" customHeight="1">
+      <c r="A21" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="B21" s="8">
+        <v>3</v>
+      </c>
+      <c r="C21" s="9">
+        <v>2</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" ht="44.05" customHeight="1">
+      <c r="A22" t="s" s="7">
+        <v>24</v>
+      </c>
+      <c r="B22" s="8">
+        <v>3</v>
+      </c>
+      <c r="C22" s="9">
+        <v>2</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" ht="152.05" customHeight="1">
+      <c r="A23" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="B23" s="8">
+        <v>3</v>
+      </c>
+      <c r="C23" s="9">
+        <v>3</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" ht="164.05" customHeight="1">
+      <c r="A24" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="B24" s="8">
+        <v>3</v>
+      </c>
+      <c r="C24" s="9">
+        <v>3</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" ht="56.05" customHeight="1">
+      <c r="A25" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="B25" s="8">
+        <v>3</v>
+      </c>
+      <c r="C25" s="9">
+        <v>3</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" ht="56.05" customHeight="1">
+      <c r="A26" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="B26" s="8">
+        <v>3</v>
+      </c>
+      <c r="C26" s="9">
+        <v>3</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" ht="92.05" customHeight="1">
+      <c r="A27" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="B27" s="8">
+        <v>3</v>
+      </c>
+      <c r="C27" s="9">
+        <v>3</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" ht="116.05" customHeight="1">
+      <c r="A28" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="B28" s="8">
+        <v>3</v>
+      </c>
+      <c r="C28" s="9">
+        <v>3</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" ht="68.05" customHeight="1">
+      <c r="A29" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="B29" s="8">
         <v>4</v>
       </c>
-      <c r="B3" s="9">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" ht="205.8" customHeight="1">
-      <c r="A4" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="B4" s="9">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" ht="277.8" customHeight="1">
-      <c r="A5" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" ht="104.05" customHeight="1">
-      <c r="A6" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="B6" s="9">
-        <v>1</v>
-      </c>
-      <c r="C6" s="10">
-        <v>1</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" ht="92.05" customHeight="1">
-      <c r="A7" t="s" s="8">
-        <v>8</v>
-      </c>
-      <c r="B7" s="9">
-        <v>2</v>
-      </c>
-      <c r="C7" s="10">
-        <v>1</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" ht="169.8" customHeight="1">
-      <c r="A8" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="B8" s="9">
-        <v>2</v>
-      </c>
-      <c r="C8" s="10">
-        <v>1</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" ht="259.8" customHeight="1">
-      <c r="A9" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="B9" s="9">
-        <v>2</v>
-      </c>
-      <c r="C9" s="10">
-        <v>1</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" ht="313.8" customHeight="1">
-      <c r="A10" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="B10" s="9">
-        <v>2</v>
-      </c>
-      <c r="C10" s="10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" ht="115.8" customHeight="1">
-      <c r="A11" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="B11" s="9">
-        <v>2</v>
-      </c>
-      <c r="C11" s="10">
-        <v>2</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" ht="133.8" customHeight="1">
-      <c r="A12" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="B12" s="9">
-        <v>2</v>
-      </c>
-      <c r="C12" s="10">
-        <v>2</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" ht="205.8" customHeight="1">
-      <c r="A13" t="s" s="12">
-        <v>14</v>
-      </c>
-      <c r="B13" s="9">
-        <v>2</v>
-      </c>
-      <c r="C13" s="10">
-        <v>2</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" ht="205.8" customHeight="1">
-      <c r="A14" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="B14" s="9">
-        <v>2</v>
-      </c>
-      <c r="C14" s="10">
-        <v>2</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" ht="187.8" customHeight="1">
-      <c r="A15" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="B15" s="9">
-        <v>2</v>
-      </c>
-      <c r="C15" s="10">
-        <v>2</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" ht="61.8" customHeight="1">
-      <c r="A16" t="s" s="12">
-        <v>17</v>
-      </c>
-      <c r="B16" s="9">
-        <v>2</v>
-      </c>
-      <c r="C16" s="10">
-        <v>2</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" ht="151.8" customHeight="1">
-      <c r="A17" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B17" s="9">
-        <v>3</v>
-      </c>
-      <c r="C17" s="10">
-        <v>2</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" ht="187.8" customHeight="1">
-      <c r="A18" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="B18" s="9">
-        <v>3</v>
-      </c>
-      <c r="C18" s="10">
-        <v>2</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" ht="259.8" customHeight="1">
-      <c r="A19" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="B19" s="9">
-        <v>3</v>
-      </c>
-      <c r="C19" s="10">
-        <v>2</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" ht="92.05" customHeight="1">
-      <c r="A20" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="B20" s="9">
-        <v>3</v>
-      </c>
-      <c r="C20" s="10">
-        <v>2</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" ht="80.05" customHeight="1">
-      <c r="A21" t="s" s="8">
-        <v>22</v>
-      </c>
-      <c r="B21" s="9">
-        <v>3</v>
-      </c>
-      <c r="C21" s="10">
-        <v>2</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" ht="44.05" customHeight="1">
-      <c r="A22" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="B22" s="9">
-        <v>3</v>
-      </c>
-      <c r="C22" s="10">
-        <v>2</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" ht="152.05" customHeight="1">
-      <c r="A23" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="B23" s="9">
-        <v>3</v>
-      </c>
-      <c r="C23" s="10">
-        <v>3</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" ht="164.05" customHeight="1">
-      <c r="A24" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="B24" s="9">
-        <v>3</v>
-      </c>
-      <c r="C24" s="10">
-        <v>3</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" ht="56.05" customHeight="1">
-      <c r="A25" t="s" s="8">
-        <v>26</v>
-      </c>
-      <c r="B25" s="9">
-        <v>3</v>
-      </c>
-      <c r="C25" s="10">
-        <v>3</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" ht="56.05" customHeight="1">
-      <c r="A26" t="s" s="8">
-        <v>27</v>
-      </c>
-      <c r="B26" s="9">
-        <v>3</v>
-      </c>
-      <c r="C26" s="10">
-        <v>3</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" ht="92.05" customHeight="1">
-      <c r="A27" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="B27" s="9">
-        <v>3</v>
-      </c>
-      <c r="C27" s="10">
-        <v>3</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" ht="116.05" customHeight="1">
-      <c r="A28" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="B28" s="9">
-        <v>3</v>
-      </c>
-      <c r="C28" s="10">
-        <v>3</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" ht="68.05" customHeight="1">
-      <c r="A29" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="B29" s="9">
+      <c r="C29" s="9">
+        <v>3</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" ht="44.05" customHeight="1">
+      <c r="A30" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="B30" s="8">
         <v>4</v>
       </c>
-      <c r="C29" s="10">
-        <v>3</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" ht="44.05" customHeight="1">
-      <c r="A30" t="s" s="8">
-        <v>31</v>
-      </c>
-      <c r="B30" s="9">
+      <c r="C30" s="9">
+        <v>3</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" ht="56.05" customHeight="1">
+      <c r="A31" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="B31" s="8">
         <v>4</v>
       </c>
-      <c r="C30" s="10">
-        <v>3</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" ht="56.05" customHeight="1">
-      <c r="A31" t="s" s="8">
-        <v>32</v>
-      </c>
-      <c r="B31" s="9">
+      <c r="C31" s="9">
+        <v>3</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" ht="32.05" customHeight="1">
+      <c r="A32" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="B32" s="8">
         <v>4</v>
       </c>
-      <c r="C31" s="10">
-        <v>3</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-    </row>
-    <row r="32" ht="32.05" customHeight="1">
-      <c r="A32" t="s" s="8">
-        <v>33</v>
-      </c>
-      <c r="B32" s="9">
+      <c r="C32" s="9">
+        <v>3</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" ht="92.05" customHeight="1">
+      <c r="A33" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="B33" s="8">
         <v>4</v>
       </c>
-      <c r="C32" s="10">
-        <v>3</v>
-      </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-    </row>
-    <row r="33" ht="92.05" customHeight="1">
-      <c r="A33" t="s" s="8">
-        <v>34</v>
-      </c>
-      <c r="B33" s="9">
+      <c r="C33" s="9">
+        <v>3</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" ht="92.05" customHeight="1">
+      <c r="A34" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="B34" s="8">
         <v>4</v>
       </c>
-      <c r="C33" s="10">
-        <v>3</v>
-      </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-    </row>
-    <row r="34" ht="92.05" customHeight="1">
-      <c r="A34" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="B34" s="9">
+      <c r="C34" s="9">
         <v>4</v>
       </c>
-      <c r="C34" s="10">
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" ht="116.05" customHeight="1">
+      <c r="A35" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="B35" s="8">
         <v>4</v>
       </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-    </row>
-    <row r="35" ht="116.05" customHeight="1">
-      <c r="A35" t="s" s="8">
-        <v>36</v>
-      </c>
-      <c r="B35" s="9">
+      <c r="C35" s="9">
         <v>4</v>
       </c>
-      <c r="C35" s="10">
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" ht="44.05" customHeight="1">
+      <c r="A36" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="B36" s="8">
         <v>4</v>
       </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-    </row>
-    <row r="36" ht="44.05" customHeight="1">
-      <c r="A36" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="B36" s="9">
+      <c r="C36" s="9">
         <v>4</v>
       </c>
-      <c r="C36" s="10">
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+    </row>
+    <row r="37" ht="56.05" customHeight="1">
+      <c r="A37" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="B37" s="8">
         <v>4</v>
       </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-    </row>
-    <row r="37" ht="56.05" customHeight="1">
-      <c r="A37" t="s" s="8">
-        <v>38</v>
-      </c>
-      <c r="B37" s="9">
+      <c r="C37" s="9">
         <v>4</v>
       </c>
-      <c r="C37" s="10">
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+    </row>
+    <row r="38" ht="68.05" customHeight="1">
+      <c r="A38" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="B38" s="8">
         <v>4</v>
       </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-    </row>
-    <row r="38" ht="68.05" customHeight="1">
-      <c r="A38" t="s" s="8">
-        <v>39</v>
-      </c>
-      <c r="B38" s="9">
+      <c r="C38" s="9">
         <v>4</v>
       </c>
-      <c r="C38" s="10">
-        <v>4</v>
-      </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/story_xlsx_files/31.xlsx
+++ b/story_xlsx_files/31.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>storyText</t>
   </si>
@@ -37,28 +37,28 @@
     </r>
   </si>
   <si>
-    <t>Mr. Shelton and Mr. Gordon both were CEOs of airplane manufacturing companies.</t>
-  </si>
-  <si>
-    <t>Mr. Shelton was in charge of a larger, well-established company and had been in the aviation business for decades.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On the other hand, Mr. Gordon led a smaller but technologically-advanced company that was projected to disrupt the airplane manufacturing market. </t>
-  </si>
-  <si>
-    <t>The restaurant they chose to meet at was old and fancy with high ceilings, dark wood paneling, and crystal chandeliers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The waitress led them to their table in the back, and they settled into a private table in the corner by the fireplace. </t>
-  </si>
-  <si>
-    <t>The waitress brought out the menus and they broke the ice with some small talk.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr. Gordon took out a picture of his daughter and talked about her recent engagement, and Mr. Gordon boasted about his purchase of a Tesla. </t>
-  </si>
-  <si>
-    <t>They looked at the menus as well, which were full of Italian classics like Carbonara and Tiramisu, and in the back section of the menu was a lengthy drink selection.</t>
+    <t>Mr. Shelton and Mr. Gordon were both in the airplane manufacturing industry.</t>
+  </si>
+  <si>
+    <t>Mr. Shelton was the CFO of a larger, well-established company and had been in the aviation business for decades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Gordon was the CEO of a smaller but technologically-advanced company that was projected to disrupt the airplane manufacturing market. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The restaurant they chose to meeting at was an old steakhouse with dark wood paneling on the floor and ceilings, taxidermy animals on the walls and tables with a candelabras sitting on each one. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The waitress led them to their table in the back, and they settled into a private table in the corner. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The waitress brought out the menus and they briefly chatted about personal happenings. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Gordon took out a picture of his daughter and talked about her recent engagement, and Mr. Gordon mentioned his purchase of a Tesla. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They looked at the menus as well, which were heavy and covered in felt and they contained in the back section a lengthy drink selection. </t>
   </si>
   <si>
     <r>
@@ -126,6 +126,9 @@
     <t>He began laying out the details of how he had handled similar acquisitions successfully in the past.</t>
   </si>
   <si>
+    <t xml:space="preserve">He also played out projections of how Mr. Gordon’s company could out-compete their own main competitor in the industry, TechJet, by using the resources of a larger corporation. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Mr. Gordon was impressed, and they went back and forth hashing out what the company configuration would look like post-merger. </t>
   </si>
   <si>
@@ -138,13 +141,13 @@
     <t xml:space="preserve"> “Can I get you anything else?” the waitress asked.</t>
   </si>
   <si>
-    <t>They declined and continued to talk.</t>
-  </si>
-  <si>
-    <t>The meal lived up to the reputation of the restaurant, which was known for having the best cuts of meat in the area.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr. Gordon, after taking a contemplative bite of his food, said, “Mr. Shelton, I think we have a deal. </t>
+    <t xml:space="preserve">They declined and began to eat. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The meal was alright- they both found the meat to be a bit overcooked and dry. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finally, Mr. Gordon, after taking a contemplative bite of his food and swallowing, said, “Mr. Shelton, I think we have a deal. </t>
   </si>
   <si>
     <t>If you can guarantee that I can still have the final say in the all the work done by my team, I think this could be beneficial for both of us.</t>
@@ -157,6 +160,9 @@
   </si>
   <si>
     <t xml:space="preserve">He said, “Cheers to a lifelong partnership and to the growth of your company.” </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They clinked glasses in unison. </t>
   </si>
 </sst>
 </file>
@@ -339,7 +345,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -349,7 +355,7 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -361,6 +367,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -368,6 +377,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1459,19 +1471,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1505,549 +1511,579 @@
       <c r="D2" s="6">
         <v>31</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" ht="80.05" customHeight="1">
-      <c r="A3" t="s" s="7">
+      <c r="A3" t="s" s="8">
         <v>5</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="10">
         <v>1</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" ht="205.8" customHeight="1">
-      <c r="A4" t="s" s="10">
+      <c r="A4" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="10">
         <v>1</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" ht="277.8" customHeight="1">
-      <c r="A5" t="s" s="10">
+      <c r="A5" t="s" s="12">
         <v>7</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>1</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="10">
         <v>1</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" ht="104.05" customHeight="1">
-      <c r="A6" t="s" s="7">
+      <c r="A6" t="s" s="8">
         <v>8</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="9">
         <v>1</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="10">
         <v>1</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" ht="92.05" customHeight="1">
-      <c r="A7" t="s" s="7">
+      <c r="A7" t="s" s="8">
         <v>9</v>
       </c>
-      <c r="B7" s="8">
-        <v>2</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="B7" s="9">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10">
         <v>1</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" ht="169.8" customHeight="1">
-      <c r="A8" t="s" s="10">
+      <c r="A8" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="B8" s="8">
-        <v>2</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="B8" s="9">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10">
         <v>1</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" ht="259.8" customHeight="1">
-      <c r="A9" t="s" s="10">
+      <c r="A9" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="B9" s="8">
-        <v>2</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="B9" s="9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="10">
         <v>1</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" ht="313.8" customHeight="1">
-      <c r="A10" t="s" s="10">
+      <c r="A10" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="B10" s="8">
-        <v>2</v>
-      </c>
-      <c r="C10" s="9">
+      <c r="B10" s="9">
+        <v>2</v>
+      </c>
+      <c r="C10" s="10">
         <v>1</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" ht="115.8" customHeight="1">
-      <c r="A11" t="s" s="7">
+      <c r="A11" t="s" s="8">
         <v>13</v>
       </c>
-      <c r="B11" s="8">
-        <v>2</v>
-      </c>
-      <c r="C11" s="9">
-        <v>2</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="B11" s="9">
+        <v>2</v>
+      </c>
+      <c r="C11" s="10">
+        <v>2</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" ht="133.8" customHeight="1">
-      <c r="A12" t="s" s="10">
+      <c r="A12" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="B12" s="8">
-        <v>2</v>
-      </c>
-      <c r="C12" s="9">
-        <v>2</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="B12" s="9">
+        <v>2</v>
+      </c>
+      <c r="C12" s="10">
+        <v>2</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" ht="205.8" customHeight="1">
-      <c r="A13" t="s" s="10">
+      <c r="A13" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="B13" s="8">
-        <v>2</v>
-      </c>
-      <c r="C13" s="9">
-        <v>2</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="B13" s="9">
+        <v>2</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" ht="205.8" customHeight="1">
-      <c r="A14" t="s" s="10">
+      <c r="A14" t="s" s="12">
         <v>16</v>
       </c>
-      <c r="B14" s="8">
-        <v>2</v>
-      </c>
-      <c r="C14" s="9">
-        <v>2</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="B14" s="9">
+        <v>2</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" ht="187.8" customHeight="1">
-      <c r="A15" t="s" s="10">
+      <c r="A15" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="B15" s="8">
-        <v>2</v>
-      </c>
-      <c r="C15" s="9">
-        <v>2</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="B15" s="9">
+        <v>2</v>
+      </c>
+      <c r="C15" s="10">
+        <v>2</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" ht="61.8" customHeight="1">
-      <c r="A16" t="s" s="10">
+      <c r="A16" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="B16" s="8">
-        <v>2</v>
-      </c>
-      <c r="C16" s="9">
-        <v>2</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="B16" s="9">
+        <v>2</v>
+      </c>
+      <c r="C16" s="10">
+        <v>2</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
     </row>
     <row r="17" ht="151.8" customHeight="1">
-      <c r="A17" t="s" s="7">
+      <c r="A17" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="B17" s="8">
-        <v>3</v>
-      </c>
-      <c r="C17" s="9">
-        <v>2</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="B17" s="9">
+        <v>3</v>
+      </c>
+      <c r="C17" s="10">
+        <v>2</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" ht="187.8" customHeight="1">
-      <c r="A18" t="s" s="10">
+      <c r="A18" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="B18" s="8">
-        <v>3</v>
-      </c>
-      <c r="C18" s="9">
-        <v>2</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="B18" s="9">
+        <v>3</v>
+      </c>
+      <c r="C18" s="10">
+        <v>2</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" ht="259.8" customHeight="1">
-      <c r="A19" t="s" s="10">
+      <c r="A19" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="B19" s="8">
-        <v>3</v>
-      </c>
-      <c r="C19" s="9">
-        <v>2</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="B19" s="9">
+        <v>3</v>
+      </c>
+      <c r="C19" s="10">
+        <v>2</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
     </row>
     <row r="20" ht="92.05" customHeight="1">
-      <c r="A20" t="s" s="7">
+      <c r="A20" t="s" s="8">
         <v>22</v>
       </c>
-      <c r="B20" s="8">
-        <v>3</v>
-      </c>
-      <c r="C20" s="9">
-        <v>2</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="B20" s="9">
+        <v>3</v>
+      </c>
+      <c r="C20" s="10">
+        <v>2</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" ht="80.05" customHeight="1">
-      <c r="A21" t="s" s="7">
+      <c r="A21" t="s" s="8">
         <v>23</v>
       </c>
-      <c r="B21" s="8">
-        <v>3</v>
-      </c>
-      <c r="C21" s="9">
-        <v>2</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="B21" s="9">
+        <v>3</v>
+      </c>
+      <c r="C21" s="10">
+        <v>2</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
     </row>
     <row r="22" ht="44.05" customHeight="1">
-      <c r="A22" t="s" s="7">
+      <c r="A22" t="s" s="8">
         <v>24</v>
       </c>
-      <c r="B22" s="8">
-        <v>3</v>
-      </c>
-      <c r="C22" s="9">
-        <v>2</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="B22" s="9">
+        <v>3</v>
+      </c>
+      <c r="C22" s="10">
+        <v>2</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" ht="152.05" customHeight="1">
-      <c r="A23" t="s" s="7">
+      <c r="A23" t="s" s="8">
         <v>25</v>
       </c>
-      <c r="B23" s="8">
-        <v>3</v>
-      </c>
-      <c r="C23" s="9">
-        <v>3</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
+      <c r="B23" s="9">
+        <v>3</v>
+      </c>
+      <c r="C23" s="10">
+        <v>3</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
     </row>
     <row r="24" ht="164.05" customHeight="1">
-      <c r="A24" t="s" s="7">
+      <c r="A24" t="s" s="8">
         <v>26</v>
       </c>
-      <c r="B24" s="8">
-        <v>3</v>
-      </c>
-      <c r="C24" s="9">
-        <v>3</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
+      <c r="B24" s="9">
+        <v>3</v>
+      </c>
+      <c r="C24" s="10">
+        <v>3</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" ht="56.05" customHeight="1">
-      <c r="A25" t="s" s="7">
+      <c r="A25" t="s" s="8">
         <v>27</v>
       </c>
-      <c r="B25" s="8">
-        <v>3</v>
-      </c>
-      <c r="C25" s="9">
-        <v>3</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
+      <c r="B25" s="9">
+        <v>3</v>
+      </c>
+      <c r="C25" s="10">
+        <v>3</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
     </row>
     <row r="26" ht="56.05" customHeight="1">
-      <c r="A26" t="s" s="7">
+      <c r="A26" t="s" s="8">
         <v>28</v>
       </c>
-      <c r="B26" s="8">
-        <v>3</v>
-      </c>
-      <c r="C26" s="9">
-        <v>3</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
+      <c r="B26" s="9">
+        <v>3</v>
+      </c>
+      <c r="C26" s="10">
+        <v>3</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
     </row>
     <row r="27" ht="92.05" customHeight="1">
-      <c r="A27" t="s" s="7">
+      <c r="A27" t="s" s="8">
         <v>29</v>
       </c>
-      <c r="B27" s="8">
-        <v>3</v>
-      </c>
-      <c r="C27" s="9">
-        <v>3</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" ht="116.05" customHeight="1">
-      <c r="A28" t="s" s="7">
+      <c r="B27" s="9">
+        <v>3</v>
+      </c>
+      <c r="C27" s="10">
+        <v>3</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" ht="92.05" customHeight="1">
+      <c r="A28" t="s" s="8">
         <v>30</v>
       </c>
-      <c r="B28" s="8">
-        <v>3</v>
-      </c>
-      <c r="C28" s="9">
-        <v>3</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" ht="68.05" customHeight="1">
-      <c r="A29" t="s" s="7">
+      <c r="B28" s="9">
+        <v>3</v>
+      </c>
+      <c r="C28" s="10">
+        <v>3</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" ht="116.05" customHeight="1">
+      <c r="A29" t="s" s="8">
         <v>31</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="9">
+        <v>3</v>
+      </c>
+      <c r="C29" s="10">
+        <v>3</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" ht="68.05" customHeight="1">
+      <c r="A30" t="s" s="8">
+        <v>32</v>
+      </c>
+      <c r="B30" s="9">
         <v>4</v>
       </c>
-      <c r="C29" s="9">
-        <v>3</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" ht="44.05" customHeight="1">
-      <c r="A30" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="B30" s="8">
+      <c r="C30" s="10">
+        <v>3</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" ht="44.05" customHeight="1">
+      <c r="A31" t="s" s="8">
+        <v>33</v>
+      </c>
+      <c r="B31" s="9">
         <v>4</v>
       </c>
-      <c r="C30" s="9">
-        <v>3</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" ht="56.05" customHeight="1">
-      <c r="A31" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="B31" s="8">
+      <c r="C31" s="10">
+        <v>3</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" ht="56.05" customHeight="1">
+      <c r="A32" t="s" s="8">
+        <v>34</v>
+      </c>
+      <c r="B32" s="9">
         <v>4</v>
       </c>
-      <c r="C31" s="9">
-        <v>3</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" ht="32.05" customHeight="1">
-      <c r="A32" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="B32" s="8">
+      <c r="C32" s="10">
+        <v>3</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" ht="32.05" customHeight="1">
+      <c r="A33" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="B33" s="9">
         <v>4</v>
       </c>
-      <c r="C32" s="9">
-        <v>3</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" ht="92.05" customHeight="1">
-      <c r="A33" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="B33" s="8">
+      <c r="C33" s="10">
+        <v>3</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" ht="92.05" customHeight="1">
+      <c r="A34" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="B34" s="9">
         <v>4</v>
       </c>
-      <c r="C33" s="9">
-        <v>3</v>
-      </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-    </row>
-    <row r="34" ht="92.05" customHeight="1">
-      <c r="A34" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="B34" s="8">
+      <c r="C34" s="10">
+        <v>3</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" ht="92.05" customHeight="1">
+      <c r="A35" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="B35" s="9">
         <v>4</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C35" s="10">
         <v>4</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-    </row>
-    <row r="35" ht="116.05" customHeight="1">
-      <c r="A35" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="B35" s="8">
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" ht="116.05" customHeight="1">
+      <c r="A36" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="B36" s="9">
         <v>4</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C36" s="10">
         <v>4</v>
       </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-    </row>
-    <row r="36" ht="44.05" customHeight="1">
-      <c r="A36" t="s" s="7">
-        <v>38</v>
-      </c>
-      <c r="B36" s="8">
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" ht="44.05" customHeight="1">
+      <c r="A37" t="s" s="8">
+        <v>39</v>
+      </c>
+      <c r="B37" s="9">
         <v>4</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C37" s="10">
         <v>4</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-    </row>
-    <row r="37" ht="56.05" customHeight="1">
-      <c r="A37" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="B37" s="8">
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" ht="56.05" customHeight="1">
+      <c r="A38" t="s" s="8">
+        <v>40</v>
+      </c>
+      <c r="B38" s="9">
         <v>4</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C38" s="10">
         <v>4</v>
       </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-    </row>
-    <row r="38" ht="68.05" customHeight="1">
-      <c r="A38" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="B38" s="8">
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" ht="68.05" customHeight="1">
+      <c r="A39" t="s" s="8">
+        <v>41</v>
+      </c>
+      <c r="B39" s="9">
         <v>4</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C39" s="10">
         <v>4</v>
       </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" ht="68.05" customHeight="1">
+      <c r="A40" t="s" s="8">
+        <v>42</v>
+      </c>
+      <c r="B40" s="9">
+        <v>4</v>
+      </c>
+      <c r="C40" s="10">
+        <v>4</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/31.xlsx
+++ b/story_xlsx_files/31.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>storyText</t>
   </si>
@@ -37,7 +37,7 @@
     </r>
   </si>
   <si>
-    <t>Mr. Shelton and Mr. Gordon were both in the airplane manufacturing industry.</t>
+    <t>They were both in the airplane manufacturing industry.</t>
   </si>
   <si>
     <t>Mr. Shelton was the CFO of a larger, well-established company and had been in the aviation business for decades.</t>
@@ -46,13 +46,13 @@
     <t xml:space="preserve">Mr. Gordon was the CEO of a smaller but technologically-advanced company that was projected to disrupt the airplane manufacturing market. </t>
   </si>
   <si>
-    <t xml:space="preserve">The restaurant they chose to meeting at was an old steakhouse with dark wood paneling on the floor and ceilings, taxidermy animals on the walls and tables with a candelabras sitting on each one. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The waitress led them to their table in the back, and they settled into a private table in the corner. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The waitress brought out the menus and they briefly chatted about personal happenings. </t>
+    <t>They chose for their meeting at was an old steakhouse with dark wood paneling on the floor and ceilings, taxidermy animals on the walls and a candelabra on every table.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The waitress seated them to their table in the back. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">She brought out the menus and they briefly chatted about personal happenings. </t>
   </si>
   <si>
     <t xml:space="preserve">Mr. Gordon took out a picture of his daughter and talked about her recent engagement, and Mr. Gordon mentioned his purchase of a Tesla. </t>
@@ -92,11 +92,11 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>The waitress came up to them and asked if they were ready to order.</t>
+      <t>The waitress arrived and asked if they were ready to order.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Mr. Gordon ordered a medium-rare steak and martini, and Mr. Shelton ordered veal and a manhattan. </t>
+    <t xml:space="preserve">Mr. Gordon chose a medium-rare steak and martini, and Mr. Shelton ordered the veal and a manhattan. </t>
   </si>
   <si>
     <t xml:space="preserve">Then Mr. Shelton continued, “Look, I’ve talked to other members of the board, and we are prepared to offer $600 million to buy your company. </t>
@@ -105,13 +105,7 @@
     <t xml:space="preserve">We'd keep on all of your current employees, and you would join as the director of your company branch.” </t>
   </si>
   <si>
-    <t xml:space="preserve">Mr. Gordon sat looking at Mr. Shelton for a few moments considering his response. </t>
-  </si>
-  <si>
-    <t>He looked at Mr. Shelton skeptically.</t>
-  </si>
-  <si>
-    <t>He said, “Mr. Shelton, I think that you make a compelling offer, but there are definitely some disadvantages to attaching our small, streamlined productions to a large company like yours.</t>
+    <t>Mr. Gordon looked at Mr. Shelton skeptically for a few moments considering his response until he said, “Mr. Shelton, I think that you make a compelling offer, but there are definitely some disadvantages to attaching our small, streamlined productions to a large company like yours.</t>
   </si>
   <si>
     <t>We operate in a very different way than a large company, and the kind of administrative complexity that makes the scale of your productions possible would suffocate our business.</t>
@@ -132,7 +126,7 @@
     <t xml:space="preserve">Mr. Gordon was impressed, and they went back and forth hashing out what the company configuration would look like post-merger. </t>
   </si>
   <si>
-    <t>The waitress brought the food out, interrupting their animated conversation.</t>
+    <t>The waitress brought out their food on a large tray.</t>
   </si>
   <si>
     <t xml:space="preserve">“Oh this looks so good!” Mr. Gordon said. </t>
@@ -147,7 +141,7 @@
     <t xml:space="preserve">The meal was alright- they both found the meat to be a bit overcooked and dry. </t>
   </si>
   <si>
-    <t xml:space="preserve">Finally, Mr. Gordon, after taking a contemplative bite of his food and swallowing, said, “Mr. Shelton, I think we have a deal. </t>
+    <t xml:space="preserve">Mr. Gordon, after taking a contemplative bite and swallowing, said, “Mr. Shelton, I think we have a deal. </t>
   </si>
   <si>
     <t>If you can guarantee that I can still have the final say in the all the work done by my team, I think this could be beneficial for both of us.</t>
@@ -160,9 +154,6 @@
   </si>
   <si>
     <t xml:space="preserve">He said, “Cheers to a lifelong partnership and to the growth of your company.” </t>
-  </si>
-  <si>
-    <t xml:space="preserve">They clinked glasses in unison. </t>
   </si>
 </sst>
 </file>
@@ -1471,7 +1462,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1793,14 +1784,14 @@
         <v>3</v>
       </c>
       <c r="C21" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" ht="44.05" customHeight="1">
+    <row r="22" ht="164.05" customHeight="1">
       <c r="A22" t="s" s="8">
         <v>24</v>
       </c>
@@ -1808,14 +1799,14 @@
         <v>3</v>
       </c>
       <c r="C22" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" ht="152.05" customHeight="1">
+    <row r="23" ht="56.05" customHeight="1">
       <c r="A23" t="s" s="8">
         <v>25</v>
       </c>
@@ -1830,7 +1821,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" ht="164.05" customHeight="1">
+    <row r="24" ht="56.05" customHeight="1">
       <c r="A24" t="s" s="8">
         <v>26</v>
       </c>
@@ -1845,7 +1836,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" ht="56.05" customHeight="1">
+    <row r="25" ht="92.05" customHeight="1">
       <c r="A25" t="s" s="8">
         <v>27</v>
       </c>
@@ -1860,7 +1851,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" ht="56.05" customHeight="1">
+    <row r="26" ht="92.05" customHeight="1">
       <c r="A26" t="s" s="8">
         <v>28</v>
       </c>
@@ -1875,7 +1866,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" ht="92.05" customHeight="1">
+    <row r="27" ht="116.05" customHeight="1">
       <c r="A27" t="s" s="8">
         <v>29</v>
       </c>
@@ -1890,12 +1881,12 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="92.05" customHeight="1">
+    <row r="28" ht="68.05" customHeight="1">
       <c r="A28" t="s" s="8">
         <v>30</v>
       </c>
       <c r="B28" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28" s="10">
         <v>3</v>
@@ -1905,12 +1896,12 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="116.05" customHeight="1">
+    <row r="29" ht="44.05" customHeight="1">
       <c r="A29" t="s" s="8">
         <v>31</v>
       </c>
       <c r="B29" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C29" s="10">
         <v>3</v>
@@ -1920,7 +1911,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="68.05" customHeight="1">
+    <row r="30" ht="56.05" customHeight="1">
       <c r="A30" t="s" s="8">
         <v>32</v>
       </c>
@@ -1935,7 +1926,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="44.05" customHeight="1">
+    <row r="31" ht="32.05" customHeight="1">
       <c r="A31" t="s" s="8">
         <v>33</v>
       </c>
@@ -1950,7 +1941,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" ht="56.05" customHeight="1">
+    <row r="32" ht="92.05" customHeight="1">
       <c r="A32" t="s" s="8">
         <v>34</v>
       </c>
@@ -1965,7 +1956,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" ht="32.05" customHeight="1">
+    <row r="33" ht="92.05" customHeight="1">
       <c r="A33" t="s" s="8">
         <v>35</v>
       </c>
@@ -1973,14 +1964,14 @@
         <v>4</v>
       </c>
       <c r="C33" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" ht="92.05" customHeight="1">
+    <row r="34" ht="116.05" customHeight="1">
       <c r="A34" t="s" s="8">
         <v>36</v>
       </c>
@@ -1988,14 +1979,14 @@
         <v>4</v>
       </c>
       <c r="C34" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" ht="92.05" customHeight="1">
+    <row r="35" ht="44.05" customHeight="1">
       <c r="A35" t="s" s="8">
         <v>37</v>
       </c>
@@ -2010,7 +2001,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" ht="116.05" customHeight="1">
+    <row r="36" ht="56.05" customHeight="1">
       <c r="A36" t="s" s="8">
         <v>38</v>
       </c>
@@ -2025,7 +2016,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" ht="44.05" customHeight="1">
+    <row r="37" ht="68.05" customHeight="1">
       <c r="A37" t="s" s="8">
         <v>39</v>
       </c>
@@ -2039,51 +2030,6 @@
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
-    </row>
-    <row r="38" ht="56.05" customHeight="1">
-      <c r="A38" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="B38" s="9">
-        <v>4</v>
-      </c>
-      <c r="C38" s="10">
-        <v>4</v>
-      </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-    </row>
-    <row r="39" ht="68.05" customHeight="1">
-      <c r="A39" t="s" s="8">
-        <v>41</v>
-      </c>
-      <c r="B39" s="9">
-        <v>4</v>
-      </c>
-      <c r="C39" s="10">
-        <v>4</v>
-      </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-    </row>
-    <row r="40" ht="68.05" customHeight="1">
-      <c r="A40" t="s" s="8">
-        <v>42</v>
-      </c>
-      <c r="B40" s="9">
-        <v>4</v>
-      </c>
-      <c r="C40" s="10">
-        <v>4</v>
-      </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/31.xlsx
+++ b/story_xlsx_files/31.xlsx
@@ -46,10 +46,10 @@
     <t xml:space="preserve">Mr. Gordon was the CEO of a smaller but technologically-advanced company that was projected to disrupt the airplane manufacturing market. </t>
   </si>
   <si>
-    <t>They chose for their meeting at was an old steakhouse with dark wood paneling on the floor and ceilings, taxidermy animals on the walls and a candelabra on every table.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The waitress seated them to their table in the back. </t>
+    <t>They chose to meet at an old steakhouse with dark wood paneling on the floor and ceilings, taxidermy animals on the walls and a candelabra on every table.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The waitress seated them at their table in the back. </t>
   </si>
   <si>
     <t xml:space="preserve">She brought out the menus and they briefly chatted about personal happenings. </t>
@@ -138,7 +138,7 @@
     <t xml:space="preserve">They declined and began to eat. </t>
   </si>
   <si>
-    <t xml:space="preserve">The meal was alright- they both found the meat to be a bit overcooked and dry. </t>
+    <t xml:space="preserve">The meal was subpar- they both found the meat to be a bit overcooked and dry. </t>
   </si>
   <si>
     <t xml:space="preserve">Mr. Gordon, after taking a contemplative bite and swallowing, said, “Mr. Shelton, I think we have a deal. </t>

--- a/story_xlsx_files/31.xlsx
+++ b/story_xlsx_files/31.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>storyText</t>
   </si>
@@ -33,7 +33,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t xml:space="preserve">Mr. Shelton and Mr. Gordon shook hands inside the foyer of the restaurant: lunch today was about big business. </t>
+      <t xml:space="preserve">Mr. Shelton and Mr. Gordon shook hands inside the waiting area of the restaurant: lunch today was about big business. </t>
     </r>
   </si>
   <si>
@@ -46,19 +46,22 @@
     <t xml:space="preserve">Mr. Gordon was the CEO of a smaller but technologically-advanced company that was projected to disrupt the airplane manufacturing market. </t>
   </si>
   <si>
-    <t>They chose to meet at an old steakhouse with dark wood paneling on the floor and ceilings, taxidermy animals on the walls and a candelabra on every table.</t>
+    <t>They chose to meet at an old steakhouse with dark wood paneling on the floor and ceilings, taxidermy animals on the walls, and a candelabra on every table.</t>
   </si>
   <si>
     <t xml:space="preserve">The waitress seated them at their table in the back. </t>
   </si>
   <si>
-    <t xml:space="preserve">She brought out the menus and they briefly chatted about personal happenings. </t>
+    <t xml:space="preserve">She brought out the menus, and they briefly chatted about personal happenings. </t>
   </si>
   <si>
     <t xml:space="preserve">Mr. Gordon took out a picture of his daughter and talked about her recent engagement, and Mr. Gordon mentioned his purchase of a Tesla. </t>
   </si>
   <si>
-    <t xml:space="preserve">They looked at the menus as well, which were heavy and covered in felt and they contained in the back section a lengthy drink selection. </t>
+    <t>They also looked over the menus which were heavy and covered in felt.</t>
+  </si>
+  <si>
+    <t>Flipping to the back of the menu brought one to a lengthy drink selection.</t>
   </si>
   <si>
     <r>
@@ -67,7 +70,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>After awhile, Mr. Shelton brought the conversation around to business.</t>
+      <t>Mr. Shelton got serious and brought the conversation around to business.</t>
     </r>
   </si>
   <si>
@@ -96,7 +99,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Mr. Gordon chose a medium-rare steak and martini, and Mr. Shelton ordered the veal and a manhattan. </t>
+    <t xml:space="preserve">Mr. Gordon chose the medium-rare steak and a martini, and Mr. Shelton ordered the veal and a manhattan. </t>
   </si>
   <si>
     <t xml:space="preserve">Then Mr. Shelton continued, “Look, I’ve talked to other members of the board, and we are prepared to offer $600 million to buy your company. </t>
@@ -153,7 +156,7 @@
     <t>Mr. Shelton grinned and lifted his martini to clink glasses.</t>
   </si>
   <si>
-    <t xml:space="preserve">He said, “Cheers to a lifelong partnership and to the growth of your company.” </t>
+    <t xml:space="preserve">He said, “Cheers to a lifelong partnership and to the growth of our company.” </t>
   </si>
 </sst>
 </file>
@@ -1462,7 +1465,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1626,23 +1629,23 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" ht="115.8" customHeight="1">
-      <c r="A11" t="s" s="8">
+    <row r="11" ht="313.8" customHeight="1">
+      <c r="A11" t="s" s="12">
         <v>13</v>
       </c>
       <c r="B11" s="9">
         <v>2</v>
       </c>
       <c r="C11" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" ht="133.8" customHeight="1">
-      <c r="A12" t="s" s="12">
+    <row r="12" ht="115.8" customHeight="1">
+      <c r="A12" t="s" s="8">
         <v>14</v>
       </c>
       <c r="B12" s="9">
@@ -1656,7 +1659,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" ht="205.8" customHeight="1">
+    <row r="13" ht="133.8" customHeight="1">
       <c r="A13" t="s" s="12">
         <v>15</v>
       </c>
@@ -1686,7 +1689,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" ht="187.8" customHeight="1">
+    <row r="15" ht="205.8" customHeight="1">
       <c r="A15" t="s" s="12">
         <v>17</v>
       </c>
@@ -1701,7 +1704,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" ht="61.8" customHeight="1">
+    <row r="16" ht="187.8" customHeight="1">
       <c r="A16" t="s" s="12">
         <v>18</v>
       </c>
@@ -1716,12 +1719,12 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" ht="151.8" customHeight="1">
-      <c r="A17" t="s" s="8">
+    <row r="17" ht="61.8" customHeight="1">
+      <c r="A17" t="s" s="12">
         <v>19</v>
       </c>
       <c r="B17" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="10">
         <v>2</v>
@@ -1731,8 +1734,8 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" ht="187.8" customHeight="1">
-      <c r="A18" t="s" s="12">
+    <row r="18" ht="151.8" customHeight="1">
+      <c r="A18" t="s" s="8">
         <v>20</v>
       </c>
       <c r="B18" s="9">
@@ -1746,7 +1749,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" ht="259.8" customHeight="1">
+    <row r="19" ht="187.8" customHeight="1">
       <c r="A19" t="s" s="12">
         <v>21</v>
       </c>
@@ -1761,8 +1764,8 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" ht="92.05" customHeight="1">
-      <c r="A20" t="s" s="8">
+    <row r="20" ht="259.8" customHeight="1">
+      <c r="A20" t="s" s="12">
         <v>22</v>
       </c>
       <c r="B20" s="9">
@@ -1776,7 +1779,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" ht="80.05" customHeight="1">
+    <row r="21" ht="92.05" customHeight="1">
       <c r="A21" t="s" s="8">
         <v>23</v>
       </c>
@@ -1784,14 +1787,14 @@
         <v>3</v>
       </c>
       <c r="C21" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" ht="164.05" customHeight="1">
+    <row r="22" ht="80.05" customHeight="1">
       <c r="A22" t="s" s="8">
         <v>24</v>
       </c>
@@ -1806,7 +1809,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" ht="56.05" customHeight="1">
+    <row r="23" ht="164.05" customHeight="1">
       <c r="A23" t="s" s="8">
         <v>25</v>
       </c>
@@ -1836,7 +1839,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" ht="92.05" customHeight="1">
+    <row r="25" ht="56.05" customHeight="1">
       <c r="A25" t="s" s="8">
         <v>27</v>
       </c>
@@ -1866,7 +1869,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" ht="116.05" customHeight="1">
+    <row r="27" ht="92.05" customHeight="1">
       <c r="A27" t="s" s="8">
         <v>29</v>
       </c>
@@ -1881,12 +1884,12 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="68.05" customHeight="1">
+    <row r="28" ht="116.05" customHeight="1">
       <c r="A28" t="s" s="8">
         <v>30</v>
       </c>
       <c r="B28" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" s="10">
         <v>3</v>
@@ -1896,7 +1899,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="44.05" customHeight="1">
+    <row r="29" ht="68.05" customHeight="1">
       <c r="A29" t="s" s="8">
         <v>31</v>
       </c>
@@ -1911,7 +1914,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="56.05" customHeight="1">
+    <row r="30" ht="44.05" customHeight="1">
       <c r="A30" t="s" s="8">
         <v>32</v>
       </c>
@@ -1926,7 +1929,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="32.05" customHeight="1">
+    <row r="31" ht="56.05" customHeight="1">
       <c r="A31" t="s" s="8">
         <v>33</v>
       </c>
@@ -1941,7 +1944,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" ht="92.05" customHeight="1">
+    <row r="32" ht="32.05" customHeight="1">
       <c r="A32" t="s" s="8">
         <v>34</v>
       </c>
@@ -1964,14 +1967,14 @@
         <v>4</v>
       </c>
       <c r="C33" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" ht="116.05" customHeight="1">
+    <row r="34" ht="92.05" customHeight="1">
       <c r="A34" t="s" s="8">
         <v>36</v>
       </c>
@@ -1986,7 +1989,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" ht="44.05" customHeight="1">
+    <row r="35" ht="116.05" customHeight="1">
       <c r="A35" t="s" s="8">
         <v>37</v>
       </c>
@@ -2001,7 +2004,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" ht="56.05" customHeight="1">
+    <row r="36" ht="44.05" customHeight="1">
       <c r="A36" t="s" s="8">
         <v>38</v>
       </c>
@@ -2016,7 +2019,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" ht="68.05" customHeight="1">
+    <row r="37" ht="56.05" customHeight="1">
       <c r="A37" t="s" s="8">
         <v>39</v>
       </c>
@@ -2030,6 +2033,21 @@
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
+    </row>
+    <row r="38" ht="68.05" customHeight="1">
+      <c r="A38" t="s" s="8">
+        <v>40</v>
+      </c>
+      <c r="B38" s="9">
+        <v>4</v>
+      </c>
+      <c r="C38" s="10">
+        <v>4</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/31.xlsx
+++ b/story_xlsx_files/31.xlsx
@@ -135,19 +135,19 @@
     <t xml:space="preserve">“Oh this looks so good!” Mr. Gordon said. </t>
   </si>
   <si>
-    <t xml:space="preserve"> “Can I get you anything else?” the waitress asked.</t>
+    <t>“Can I get you anything else?” the waitress asked.</t>
   </si>
   <si>
     <t xml:space="preserve">They declined and began to eat. </t>
   </si>
   <si>
-    <t xml:space="preserve">The meal was subpar- they both found the meat to be a bit overcooked and dry. </t>
+    <t xml:space="preserve">The meal was subpar- they both found the meat to be overcooked and dry. </t>
   </si>
   <si>
     <t xml:space="preserve">Mr. Gordon, after taking a contemplative bite and swallowing, said, “Mr. Shelton, I think we have a deal. </t>
   </si>
   <si>
-    <t>If you can guarantee that I can still have the final say in the all the work done by my team, I think this could be beneficial for both of us.</t>
+    <t>If you can guarantee that I can still have the final say in all the work done by my team, I think this could be beneficial for both of us.</t>
   </si>
   <si>
     <t>I propose a toast to the merging of our companies.”</t>
